--- a/Data/TestData.xlsx
+++ b/Data/TestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5513B6FC-445D-440E-9B32-EA4D1EE71930}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053942F9-E310-4BA9-B873-1DA0503DA0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="32760" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
-    <t>Porsche</t>
-  </si>
-  <si>
     <t>search_term</t>
   </si>
   <si>
     <t>expected_result</t>
+  </si>
+  <si>
+    <t>Bosch</t>
   </si>
 </sst>
 </file>
@@ -144,10 +144,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6E24257-4A5A-49A0-9059-358FF10AF758}" name="Table1" displayName="Table1" ref="A1:B2" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6E24257-4A5A-49A0-9059-358FF10AF758}" name="Table1" displayName="Table1" ref="A1:B2" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1E68CBFB-7908-4F05-8CBB-EAC2D17F8A0F}" name="search_term" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{748E6871-1F40-4CB4-8C5F-9CFCFE19F8DD}" name="expected_result" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1E68CBFB-7908-4F05-8CBB-EAC2D17F8A0F}" name="search_term" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{748E6871-1F40-4CB4-8C5F-9CFCFE19F8DD}" name="expected_result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -419,7 +419,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -429,18 +429,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
